--- a/DRE/cap05-Definicion_Topologia_Usuarios/IPT_ACRM_Usuarios_150423.xlsx
+++ b/DRE/cap05-Definicion_Topologia_Usuarios/IPT_ACRM_Usuarios_150423.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" tabRatio="786"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" tabRatio="786" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="KAM - RM - HQM" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,30 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Angel Campos</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Listado multivalor: Office/ VPN / Internet / Off-Line</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Angel Campos</author>
@@ -270,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="129">
   <si>
     <t>10% de su tiempo - (4hrs / semanales)</t>
   </si>
@@ -354,27 +378,6 @@
     <t>Job Location</t>
   </si>
   <si>
-    <t>Hardware tipically used</t>
-  </si>
-  <si>
-    <t>New licenses estimate (2015-2020)</t>
-  </si>
-  <si>
-    <t>User full names (&amp; INITIALS)</t>
-  </si>
-  <si>
-    <t>INPUT Type of information</t>
-  </si>
-  <si>
-    <t>OUTPUT Type of information</t>
-  </si>
-  <si>
-    <t>Workflows involved</t>
-  </si>
-  <si>
-    <t>CRM possible risks</t>
-  </si>
-  <si>
     <t>User Permissions</t>
   </si>
   <si>
@@ -388,12 +391,6 @@
   </si>
   <si>
     <t>Office, VPN, Internet, Off-Line</t>
-  </si>
-  <si>
-    <t>Number of licenses (currently used + short time)</t>
-  </si>
-  <si>
-    <t>CRM Major advantages</t>
   </si>
   <si>
     <t>Carga de trabajo extra (para documentar actividades)</t>
@@ -405,9 +402,6 @@
   </si>
   <si>
     <t>30% de su tiempo - (14 hrs / semanales)</t>
-  </si>
-  <si>
-    <t>Estimated workload (CRM interaction time)</t>
   </si>
   <si>
     <t>Marketing</t>
@@ -828,12 +822,15 @@
   <si>
     <t>New Licenses Estimate (2016-2020)</t>
   </si>
+  <si>
+    <t>PENDIENTE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,6 +898,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -922,7 +927,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -945,11 +950,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1002,6 +1029,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1308,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,13 +1377,13 @@
         <v>25</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1352,7 +1391,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1363,21 +1402,21 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -1386,15 +1425,15 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -1405,7 +1444,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
@@ -1419,108 +1458,114 @@
     </row>
     <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1535,7 +1580,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,7 +1595,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1558,7 +1603,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1569,79 +1614,79 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1651,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B15" sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,101 +1709,99 @@
     <col min="3" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1770,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B3:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,10 +1825,10 @@
   <sheetData>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -1841,7 +1884,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,7 +1899,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1864,7 +1907,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1872,28 +1915,28 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -1901,7 +1944,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -1909,64 +1952,64 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1981,7 +2024,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,7 +2039,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -2004,7 +2047,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2012,28 +2055,28 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
@@ -2041,7 +2084,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -2049,64 +2092,64 @@
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2117,16 +2160,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="78.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2135,7 +2178,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2143,7 +2186,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2151,28 +2194,28 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1">
         <v>9</v>
@@ -2180,7 +2223,7 @@
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -2188,66 +2231,67 @@
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2256,12 +2300,12 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" style="5" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="5" customWidth="1"/>
     <col min="2" max="3" width="40" style="4" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
@@ -2271,10 +2315,10 @@
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2282,10 +2326,10 @@
         <v>25</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2293,37 +2337,37 @@
         <v>26</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="B6" s="14">
         <v>0</v>
@@ -2334,7 +2378,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="B7" s="14">
         <v>0</v>
@@ -2345,88 +2389,88 @@
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2440,7 +2484,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2463,7 +2507,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2471,28 +2515,28 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -2500,7 +2544,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -2508,64 +2552,64 @@
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2580,7 +2624,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,7 +2647,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2660,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -2624,15 +2668,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1">
         <v>8</v>
@@ -2640,7 +2684,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2648,23 +2692,23 @@
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -2672,29 +2716,29 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -2702,10 +2746,10 @@
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2719,7 +2763,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2743,7 +2787,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2756,7 +2800,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -2764,7 +2808,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -2772,18 +2816,18 @@
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -2791,53 +2835,53 @@
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
@@ -2845,7 +2889,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -2863,7 +2907,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C15" sqref="C15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2878,7 +2922,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2886,7 +2930,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2897,77 +2941,77 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
